--- a/Tesis/LSTM - GridSearch/Resultados.xlsx
+++ b/Tesis/LSTM - GridSearch/Resultados.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EBBE802-3AEB-4701-85DF-C094B7044440}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B6BE9AE4-D7F8-4D41-9699-6DEA34DE5610}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AC_ACOSTADO" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="423">
   <si>
     <t>batch_size</t>
   </si>
@@ -822,72 +822,6 @@
     <t>0.21781738</t>
   </si>
   <si>
-    <t>0.60799265</t>
-  </si>
-  <si>
-    <t>0.46504104</t>
-  </si>
-  <si>
-    <t>0.5789377</t>
-  </si>
-  <si>
-    <t>0.42102748</t>
-  </si>
-  <si>
-    <t>0.5194608</t>
-  </si>
-  <si>
-    <t>0.30953363</t>
-  </si>
-  <si>
-    <t>0.35237354</t>
-  </si>
-  <si>
-    <t>0.27815053</t>
-  </si>
-  <si>
-    <t>0.3416021</t>
-  </si>
-  <si>
-    <t>0.26759896</t>
-  </si>
-  <si>
-    <t>0.33343834</t>
-  </si>
-  <si>
-    <t>0.25792906</t>
-  </si>
-  <si>
-    <t>0.32597497</t>
-  </si>
-  <si>
-    <t>0.23825878</t>
-  </si>
-  <si>
-    <t>0.26912048</t>
-  </si>
-  <si>
-    <t>0.2181859</t>
-  </si>
-  <si>
-    <t>0.22240162</t>
-  </si>
-  <si>
-    <t>0.18730927</t>
-  </si>
-  <si>
-    <t>0.19517656</t>
-  </si>
-  <si>
-    <t>0.14874864</t>
-  </si>
-  <si>
-    <t>0.09264887</t>
-  </si>
-  <si>
-    <t>0.13294464</t>
-  </si>
-  <si>
     <t>0.27562022</t>
   </si>
   <si>
@@ -1227,67 +1161,136 @@
     <t>0.3308662</t>
   </si>
   <si>
-    <t>0.69476527</t>
-  </si>
-  <si>
-    <t>0.5461859</t>
-  </si>
-  <si>
-    <t>0.6945086</t>
-  </si>
-  <si>
-    <t>0.5291035</t>
-  </si>
-  <si>
-    <t>0.52403706</t>
-  </si>
-  <si>
-    <t>0.4954629</t>
-  </si>
-  <si>
-    <t>0.48697206</t>
-  </si>
-  <si>
-    <t>0.4695435</t>
-  </si>
-  <si>
-    <t>0.2950974</t>
-  </si>
-  <si>
-    <t>0.46947643</t>
-  </si>
-  <si>
-    <t>0.28439233</t>
-  </si>
-  <si>
-    <t>0.43057206</t>
-  </si>
-  <si>
-    <t>0.25024477</t>
-  </si>
-  <si>
-    <t>0.4200894</t>
-  </si>
-  <si>
-    <t>0.2325725</t>
-  </si>
-  <si>
-    <t>0.34008944</t>
-  </si>
-  <si>
-    <t>0.10202969</t>
-  </si>
-  <si>
-    <t>0.3040184</t>
-  </si>
-  <si>
-    <t>0.06575966</t>
-  </si>
-  <si>
-    <t>-0.28346547</t>
-  </si>
-  <si>
-    <t>-0.04034574</t>
+    <t>0.7533008</t>
+  </si>
+  <si>
+    <t>0.7430243</t>
+  </si>
+  <si>
+    <t>0.7318676</t>
+  </si>
+  <si>
+    <t>0.7250543</t>
+  </si>
+  <si>
+    <t>0.71791697</t>
+  </si>
+  <si>
+    <t>0.7131673</t>
+  </si>
+  <si>
+    <t>0.69028217</t>
+  </si>
+  <si>
+    <t>0.68088025</t>
+  </si>
+  <si>
+    <t>0.67583334</t>
+  </si>
+  <si>
+    <t>0.6570179</t>
+  </si>
+  <si>
+    <t>0.6563905</t>
+  </si>
+  <si>
+    <t>0.55966806</t>
+  </si>
+  <si>
+    <t>0.55354714</t>
+  </si>
+  <si>
+    <t>0.51295173</t>
+  </si>
+  <si>
+    <t>0.48055926</t>
+  </si>
+  <si>
+    <t>0.42221236</t>
+  </si>
+  <si>
+    <t>0.40691724</t>
+  </si>
+  <si>
+    <t>0.38564622</t>
+  </si>
+  <si>
+    <t>0.36873442</t>
+  </si>
+  <si>
+    <t>0.33538634</t>
+  </si>
+  <si>
+    <t>0.3303601</t>
+  </si>
+  <si>
+    <t>0.3007593</t>
+  </si>
+  <si>
+    <t>0.7032561</t>
+  </si>
+  <si>
+    <t>0.6220465</t>
+  </si>
+  <si>
+    <t>0.6127682</t>
+  </si>
+  <si>
+    <t>0.60103345</t>
+  </si>
+  <si>
+    <t>0.5612573</t>
+  </si>
+  <si>
+    <t>0.5257478</t>
+  </si>
+  <si>
+    <t>0.49001166</t>
+  </si>
+  <si>
+    <t>0.48506922</t>
+  </si>
+  <si>
+    <t>0.34805602</t>
+  </si>
+  <si>
+    <t>0.26609552</t>
+  </si>
+  <si>
+    <t>0.045605097</t>
+  </si>
+  <si>
+    <t>0.57037425</t>
+  </si>
+  <si>
+    <t>0.56328076</t>
+  </si>
+  <si>
+    <t>0.5607686</t>
+  </si>
+  <si>
+    <t>0.55515933</t>
+  </si>
+  <si>
+    <t>0.53083545</t>
+  </si>
+  <si>
+    <t>0.52658355</t>
+  </si>
+  <si>
+    <t>0.5152403</t>
+  </si>
+  <si>
+    <t>0.50678235</t>
+  </si>
+  <si>
+    <t>0.5031612</t>
+  </si>
+  <si>
+    <t>0.48889926</t>
+  </si>
+  <si>
+    <t>0.46964413</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2076,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8972550" y="276225"/>
+          <a:off x="9029700" y="276225"/>
           <a:ext cx="3095625" cy="352425"/>
           <a:chOff x="1466851" y="238125"/>
           <a:chExt cx="2428875" cy="352425"/>
@@ -2890,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:S76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="C52" workbookViewId="0">
       <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
@@ -5927,8 +5930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1211BBCB-56DF-469C-8EC6-0285F1D042C8}">
   <dimension ref="B4:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K7" sqref="K6:K7"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I78" sqref="I77:I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5937,7 +5940,9 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -8658,52 +8663,52 @@
     </row>
     <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="G71" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M71" s="8" t="s">
+      <c r="M71" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N71" s="8" t="s">
+      <c r="N71" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P71" s="8" t="s">
+      <c r="P71" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q71" s="8" t="s">
+      <c r="Q71" s="11" t="s">
         <v>0</v>
       </c>
       <c r="R71" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S71" s="8" t="s">
+      <c r="S71" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8730,7 +8735,7 @@
         <v>145</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>23</v>
@@ -8751,10 +8756,10 @@
         <v>246</v>
       </c>
       <c r="R72" s="6" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="S72" s="4" t="s">
-        <v>267</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8777,10 +8782,10 @@
         <v>244</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>23</v>
@@ -8801,10 +8806,10 @@
         <v>246</v>
       </c>
       <c r="R73" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>269</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8827,10 +8832,10 @@
         <v>244</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>270</v>
+        <v>381</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>23</v>
@@ -8851,10 +8856,10 @@
         <v>246</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>271</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8877,10 +8882,10 @@
         <v>244</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>23</v>
@@ -8901,10 +8906,10 @@
         <v>246</v>
       </c>
       <c r="R75" s="6" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8927,10 +8932,10 @@
         <v>244</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>274</v>
+        <v>383</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>23</v>
@@ -8951,10 +8956,10 @@
         <v>246</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S76" s="1" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8977,10 +8982,10 @@
         <v>244</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>276</v>
+        <v>384</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>23</v>
@@ -9001,10 +9006,10 @@
         <v>246</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>277</v>
+        <v>395</v>
       </c>
     </row>
     <row r="78" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9027,10 +9032,10 @@
         <v>244</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>278</v>
+        <v>385</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>23</v>
@@ -9051,10 +9056,10 @@
         <v>246</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
     </row>
     <row r="79" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9077,10 +9082,10 @@
         <v>244</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>23</v>
@@ -9101,10 +9106,10 @@
         <v>246</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>281</v>
+        <v>397</v>
       </c>
     </row>
     <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9127,10 +9132,10 @@
         <v>244</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>23</v>
@@ -9151,10 +9156,10 @@
         <v>246</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>283</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9177,10 +9182,10 @@
         <v>244</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>23</v>
@@ -9201,10 +9206,10 @@
         <v>246</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>285</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9227,10 +9232,10 @@
         <v>244</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>286</v>
+        <v>389</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>23</v>
@@ -9251,15 +9256,16 @@
         <v>246</v>
       </c>
       <c r="R82" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9268,7 +9274,7 @@
   <dimension ref="B4:S86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,7 +9372,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>9</v>
@@ -9390,7 +9396,7 @@
         <v>8</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9416,7 +9422,7 @@
         <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>19</v>
@@ -9440,7 +9446,7 @@
         <v>8</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9466,7 +9472,7 @@
         <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>13</v>
@@ -9490,7 +9496,7 @@
         <v>8</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9516,7 +9522,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>15</v>
@@ -9540,7 +9546,7 @@
         <v>8</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9566,7 +9572,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>17</v>
@@ -9590,7 +9596,7 @@
         <v>8</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9616,7 +9622,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>23</v>
@@ -9640,7 +9646,7 @@
         <v>8</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9666,7 +9672,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>21</v>
@@ -9690,7 +9696,7 @@
         <v>8</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9767,7 +9773,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>9</v>
@@ -9791,7 +9797,7 @@
         <v>8</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9817,7 +9823,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>9</v>
@@ -9841,7 +9847,7 @@
         <v>8</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9867,7 +9873,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>9</v>
@@ -9891,7 +9897,7 @@
         <v>8</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9917,7 +9923,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>9</v>
@@ -9941,7 +9947,7 @@
         <v>8</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9967,7 +9973,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>9</v>
@@ -9991,7 +9997,7 @@
         <v>8</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10017,7 +10023,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>9</v>
@@ -10041,7 +10047,7 @@
         <v>8</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10067,7 +10073,7 @@
         <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>9</v>
@@ -10091,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10168,7 +10174,7 @@
         <v>8</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>9</v>
@@ -10192,7 +10198,7 @@
         <v>8</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10218,7 +10224,7 @@
         <v>8</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>9</v>
@@ -10242,7 +10248,7 @@
         <v>8</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10268,7 +10274,7 @@
         <v>8</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>9</v>
@@ -10292,7 +10298,7 @@
         <v>8</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10318,7 +10324,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>9</v>
@@ -10342,7 +10348,7 @@
         <v>8</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10368,7 +10374,7 @@
         <v>8</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>9</v>
@@ -10392,7 +10398,7 @@
         <v>8</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10418,7 +10424,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>9</v>
@@ -10442,7 +10448,7 @@
         <v>8</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10468,7 +10474,7 @@
         <v>8</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>9</v>
@@ -10492,7 +10498,7 @@
         <v>8</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10518,7 +10524,7 @@
         <v>8</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>9</v>
@@ -10542,7 +10548,7 @@
         <v>8</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10568,7 +10574,7 @@
         <v>8</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>9</v>
@@ -10592,7 +10598,7 @@
         <v>8</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10618,7 +10624,7 @@
         <v>8</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>9</v>
@@ -10642,7 +10648,7 @@
         <v>8</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10668,7 +10674,7 @@
         <v>8</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>9</v>
@@ -10692,7 +10698,7 @@
         <v>8</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10769,7 +10775,7 @@
         <v>8</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>9</v>
@@ -10793,7 +10799,7 @@
         <v>8</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10819,7 +10825,7 @@
         <v>8</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>9</v>
@@ -10843,7 +10849,7 @@
         <v>8</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10869,7 +10875,7 @@
         <v>8</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>9</v>
@@ -10893,7 +10899,7 @@
         <v>8</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10919,7 +10925,7 @@
         <v>8</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>9</v>
@@ -10943,7 +10949,7 @@
         <v>8</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10969,7 +10975,7 @@
         <v>8</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>9</v>
@@ -10993,7 +10999,7 @@
         <v>8</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11070,7 +11076,7 @@
         <v>8</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>9</v>
@@ -11094,7 +11100,7 @@
         <v>8</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11120,7 +11126,7 @@
         <v>8</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>9</v>
@@ -11144,7 +11150,7 @@
         <v>8</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11170,7 +11176,7 @@
         <v>8</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>9</v>
@@ -11194,7 +11200,7 @@
         <v>8</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11220,7 +11226,7 @@
         <v>8</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>9</v>
@@ -11244,7 +11250,7 @@
         <v>8</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11270,7 +11276,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>9</v>
@@ -11294,7 +11300,7 @@
         <v>8</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11320,7 +11326,7 @@
         <v>8</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>9</v>
@@ -11344,7 +11350,7 @@
         <v>8</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11370,7 +11376,7 @@
         <v>8</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>9</v>
@@ -11394,7 +11400,7 @@
         <v>8</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11420,7 +11426,7 @@
         <v>8</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>9</v>
@@ -11444,7 +11450,7 @@
         <v>8</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11470,7 +11476,7 @@
         <v>8</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>9</v>
@@ -11494,7 +11500,7 @@
         <v>8</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11520,7 +11526,7 @@
         <v>8</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>9</v>
@@ -11544,7 +11550,7 @@
         <v>8</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -11621,7 +11627,7 @@
         <v>8</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>9</v>
@@ -11639,13 +11645,13 @@
         <v>109</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11665,13 +11671,13 @@
         <v>99</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>9</v>
@@ -11689,13 +11695,13 @@
         <v>109</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11721,7 +11727,7 @@
         <v>8</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>9</v>
@@ -11739,13 +11745,13 @@
         <v>109</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11771,7 +11777,7 @@
         <v>8</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>9</v>
@@ -11789,13 +11795,13 @@
         <v>109</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11815,13 +11821,13 @@
         <v>99</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>9</v>
@@ -11839,13 +11845,13 @@
         <v>109</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S65" s="1" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="66" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11865,13 +11871,13 @@
         <v>99</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>9</v>
@@ -11889,13 +11895,13 @@
         <v>109</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11915,13 +11921,13 @@
         <v>99</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>9</v>
@@ -11945,7 +11951,7 @@
         <v>8</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11965,13 +11971,13 @@
         <v>99</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>9</v>
@@ -11995,7 +12001,7 @@
         <v>8</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12015,13 +12021,13 @@
         <v>99</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>9</v>
@@ -12045,7 +12051,7 @@
         <v>8</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12065,13 +12071,13 @@
         <v>99</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>9</v>
@@ -12089,13 +12095,13 @@
         <v>109</v>
       </c>
       <c r="Q70" s="6" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12115,13 +12121,13 @@
         <v>99</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>9</v>
@@ -12139,13 +12145,13 @@
         <v>109</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12165,13 +12171,13 @@
         <v>99</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>9</v>
@@ -12189,63 +12195,63 @@
         <v>109</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="1" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="11" t="s">
         <v>0</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="L75" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M75" s="8" t="s">
+      <c r="M75" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N75" s="8" t="s">
+      <c r="N75" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P75" s="8" t="s">
+      <c r="P75" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q75" s="8" t="s">
+      <c r="Q75" s="11" t="s">
         <v>0</v>
       </c>
       <c r="R75" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="S75" s="8" t="s">
+      <c r="S75" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12269,7 +12275,7 @@
         <v>8</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>401</v>
@@ -12290,13 +12296,13 @@
         <v>109</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R76" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12319,10 +12325,10 @@
         <v>8</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>9</v>
@@ -12340,13 +12346,13 @@
         <v>109</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R77" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12369,10 +12375,10 @@
         <v>8</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>9</v>
@@ -12390,13 +12396,13 @@
         <v>109</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12419,10 +12425,10 @@
         <v>8</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>9</v>
@@ -12440,13 +12446,13 @@
         <v>109</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="80" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12469,10 +12475,10 @@
         <v>8</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>9</v>
@@ -12490,13 +12496,13 @@
         <v>109</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R80" s="6" t="s">
         <v>136</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12519,10 +12525,10 @@
         <v>8</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>9</v>
@@ -12540,13 +12546,13 @@
         <v>109</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12569,10 +12575,10 @@
         <v>8</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>9</v>
@@ -12590,13 +12596,13 @@
         <v>109</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R82" s="6" t="s">
         <v>150</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12622,7 +12628,7 @@
         <v>150</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>9</v>
@@ -12640,13 +12646,13 @@
         <v>109</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12669,10 +12675,10 @@
         <v>8</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>9</v>
@@ -12690,13 +12696,13 @@
         <v>109</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12719,10 +12725,10 @@
         <v>8</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>9</v>
@@ -12740,13 +12746,13 @@
         <v>109</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R85" s="6" t="s">
         <v>134</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12771,8 +12777,8 @@
       <c r="H86" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I86" s="1">
-        <v>2.327452E-2</v>
+      <c r="I86" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>9</v>
@@ -12790,17 +12796,18 @@
         <v>109</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="R86" s="6" t="s">
         <v>99</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>